--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_37.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3052259.395249811</v>
+        <v>3047630.266329902</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.38184714</v>
+        <v>2310564.143223171</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791247</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7353676.363244778</v>
+        <v>7351316.445683102</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>98.96602261248873</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -707,22 +707,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>206.3670033956565</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>8.120254610426137</v>
+        <v>74.8670242453037</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>55.24675346159202</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -874,7 +874,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>175.6983641828944</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>271.3052141574662</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>83.84708725779093</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>33.54550680794377</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
@@ -1035,13 +1035,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>77.17599189024996</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.8381367815073</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>214.0175430895179</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>181.7237254559402</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>93.86158641218542</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1291,16 +1291,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.22962011024177</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>76.74086563202125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1376,13 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>74.07584602384601</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>226.8509454548578</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
         <v>159.2039277954309</v>
@@ -1430,13 +1430,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>224.4333420782518</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="12">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.662567890145752</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>273.482381017326</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1622,10 +1622,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
@@ -1664,7 +1664,7 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
         <v>273.2977702070789</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H16" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1889,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135895</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,13 +2126,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003578</v>
+        <v>280.4599644277187</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281736</v>
+        <v>273.2139126555345</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415739</v>
+        <v>265.5568836689347</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806958</v>
+        <v>282.5278558080566</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313969</v>
+        <v>296.6956602587578</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029518</v>
+        <v>293.0012941303127</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752492</v>
+        <v>204.81238610261</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453476</v>
+        <v>20.9239119118956</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443488</v>
+        <v>48.81858568179572</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622524</v>
+        <v>105.2357625896133</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158223</v>
+        <v>137.1653684431832</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495917</v>
+        <v>222.6559073769526</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274703</v>
+        <v>251.2592108548312</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623486</v>
+        <v>269.5282451897095</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346798</v>
+        <v>276.4959681620406</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.7695671504632</v>
+        <v>67.32610467782405</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074561</v>
+        <v>52.47323292810646</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258534</v>
+        <v>38.04694813994618</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546445</v>
+        <v>37.97339019282529</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523172</v>
+        <v>39.72284161259256</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762385</v>
+        <v>50.5416795349847</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419589</v>
+        <v>37.89393170155674</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536782</v>
+        <v>15.73364728272867</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982374</v>
+        <v>6.632145647184586</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535106</v>
+        <v>84.7580891527119</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595231</v>
+        <v>117.332027486884</v>
       </c>
       <c r="U34" t="n">
-        <v>172.998032486593</v>
+        <v>166.5545700139538</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734589</v>
+        <v>147.2897179008198</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942091</v>
+        <v>164.4672642215699</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409217</v>
+        <v>115.7096851682825</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.294569217598</v>
+        <v>104.8511067449589</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.0229587840511</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C41" t="n">
         <v>292.7769070118668</v>
       </c>
       <c r="D41" t="n">
-        <v>285.1198780252671</v>
+        <v>1.098310803921109</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643891</v>
+        <v>302.090850164389</v>
       </c>
       <c r="F41" t="n">
-        <v>228.719426399121</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G41" t="n">
         <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589424</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822795</v>
+        <v>40.48690626822794</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812808</v>
+        <v>68.38158003812806</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
         <v>156.7283627995155</v>
@@ -3800,13 +3800,13 @@
         <v>242.2189017332849</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111636</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X41" t="n">
         <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>296.058962518373</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.8890990341564</v>
+        <v>86.88909903415639</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443881</v>
+        <v>72.03622728443879</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627853</v>
+        <v>57.60994249627852</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915765</v>
+        <v>57.53638454915763</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892491</v>
+        <v>59.2858359689249</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131705</v>
+        <v>70.10467389131703</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788909</v>
+        <v>57.45692605788908</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906102</v>
+        <v>35.29664163906101</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351694</v>
+        <v>26.19514000351693</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090443</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T43" t="n">
         <v>136.8950218432163</v>
@@ -3961,7 +3961,7 @@
         <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246149</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y43" t="n">
         <v>124.4141011012912</v>
@@ -3977,13 +3977,13 @@
         <v>300.022958784051</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>292.7769070118668</v>
       </c>
       <c r="D44" t="n">
-        <v>285.119878025267</v>
+        <v>41.58521707214834</v>
       </c>
       <c r="E44" t="n">
-        <v>86.470809495968</v>
+        <v>302.090850164389</v>
       </c>
       <c r="F44" t="n">
         <v>316.2586546150901</v>
@@ -3992,10 +3992,10 @@
         <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589423</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822794</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1296.596662359121</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="C2" t="n">
-        <v>1296.596662359121</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="D2" t="n">
-        <v>1296.596662359121</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="E2" t="n">
-        <v>1196.630982952567</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="F2" t="n">
-        <v>779.736544482545</v>
+        <v>777.7441318441284</v>
       </c>
       <c r="G2" t="n">
-        <v>366.5737889705482</v>
+        <v>364.5813763321316</v>
       </c>
       <c r="H2" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1405114458669</v>
+        <v>46.56170315639389</v>
       </c>
       <c r="K2" t="n">
-        <v>546.1228674733287</v>
+        <v>405.5440591838557</v>
       </c>
       <c r="L2" t="n">
-        <v>1039.443159191858</v>
+        <v>898.8643509023846</v>
       </c>
       <c r="M2" t="n">
-        <v>1336.309833828089</v>
+        <v>898.8643509023846</v>
       </c>
       <c r="N2" t="n">
-        <v>1336.309833828089</v>
+        <v>1400.031133897835</v>
       </c>
       <c r="O2" t="n">
-        <v>1776.349434720418</v>
+        <v>1840.070734790163</v>
       </c>
       <c r="P2" t="n">
-        <v>2124.53692685194</v>
+        <v>1840.070734790163</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137462</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="S2" t="n">
-        <v>2086.544013137462</v>
+        <v>1820.409826157684</v>
       </c>
       <c r="T2" t="n">
-        <v>2086.544013137462</v>
+        <v>1596.909223717101</v>
       </c>
       <c r="U2" t="n">
-        <v>2086.544013137462</v>
+        <v>1341.156494151699</v>
       </c>
       <c r="V2" t="n">
-        <v>2086.544013137462</v>
+        <v>999.0496848552178</v>
       </c>
       <c r="W2" t="n">
-        <v>2086.544013137462</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="X2" t="n">
-        <v>1697.091408070518</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="Y2" t="n">
-        <v>1697.091408070518</v>
+        <v>790.5981662737466</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.5673750163348</v>
+        <v>657.7430775364683</v>
       </c>
       <c r="C3" t="n">
-        <v>454.913144576427</v>
+        <v>507.0888470965605</v>
       </c>
       <c r="D3" t="n">
-        <v>324.8241771979074</v>
+        <v>376.9998797180408</v>
       </c>
       <c r="E3" t="n">
-        <v>188.3776863087951</v>
+        <v>240.5533888289285</v>
       </c>
       <c r="F3" t="n">
-        <v>188.3776863087951</v>
+        <v>116.1215827120603</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245263</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512721</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567662</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3448668189926</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L3" t="n">
-        <v>958.9109527173059</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="M3" t="n">
-        <v>1364.348945901194</v>
+        <v>861.4042549562988</v>
       </c>
       <c r="N3" t="n">
-        <v>1890.171835297049</v>
+        <v>883.7630516643735</v>
       </c>
       <c r="O3" t="n">
-        <v>1890.171835297049</v>
+        <v>1384.929834659824</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297049</v>
+        <v>1790.551203376221</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750004</v>
+        <v>2000.999251829176</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649873</v>
+        <v>1866.068574729045</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.705394848781</v>
+        <v>1689.084762927954</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527423</v>
+        <v>1479.021619606595</v>
       </c>
       <c r="V3" t="n">
-        <v>1356.10224989849</v>
+        <v>1256.481617977662</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.985004031777</v>
+        <v>1026.364372110949</v>
       </c>
       <c r="X3" t="n">
-        <v>936.6779263817889</v>
+        <v>837.057294460961</v>
       </c>
       <c r="Y3" t="n">
-        <v>757.3637094572962</v>
+        <v>657.7430775364683</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.49073853703879</v>
+        <v>241.0817140065311</v>
       </c>
       <c r="C4" t="n">
-        <v>42.49073853703879</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="D4" t="n">
-        <v>42.49073853703879</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="E4" t="n">
-        <v>42.49073853703879</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="F4" t="n">
-        <v>42.49073853703879</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49073853703879</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703879</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703879</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>741.1216772611406</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>505.4026254293747</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>219.9638336712756</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="V4" t="n">
-        <v>42.49073853703879</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="W4" t="n">
-        <v>42.49073853703879</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="X4" t="n">
-        <v>42.49073853703879</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.49073853703879</v>
+        <v>296.8865154828866</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1530.577853011569</v>
+        <v>551.2091433733594</v>
       </c>
       <c r="C5" t="n">
-        <v>1256.532182145442</v>
+        <v>551.2091433733594</v>
       </c>
       <c r="D5" t="n">
-        <v>871.0910533621093</v>
+        <v>551.2091433733594</v>
       </c>
       <c r="E5" t="n">
-        <v>468.5075284786538</v>
+        <v>551.2091433733594</v>
       </c>
       <c r="F5" t="n">
-        <v>51.61309000863157</v>
+        <v>538.3551089437412</v>
       </c>
       <c r="G5" t="n">
-        <v>42.49073853703879</v>
+        <v>125.1923534317444</v>
       </c>
       <c r="H5" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1405114458669</v>
+        <v>185.1480988074503</v>
       </c>
       <c r="K5" t="n">
-        <v>546.1228674733287</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L5" t="n">
-        <v>546.1228674733287</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M5" t="n">
-        <v>1071.945756869184</v>
+        <v>1051.843641766313</v>
       </c>
       <c r="N5" t="n">
-        <v>1597.768646265039</v>
+        <v>1051.843641766313</v>
       </c>
       <c r="O5" t="n">
-        <v>1939.691366710991</v>
+        <v>1491.883242658641</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.691366710991</v>
+        <v>1840.070734790163</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R5" t="n">
-        <v>2086.544013137462</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="S5" t="n">
-        <v>1920.030458078512</v>
+        <v>1820.409826157684</v>
       </c>
       <c r="T5" t="n">
-        <v>1920.030458078512</v>
+        <v>1596.909223717101</v>
       </c>
       <c r="U5" t="n">
-        <v>1920.030458078512</v>
+        <v>1341.156494151699</v>
       </c>
       <c r="V5" t="n">
-        <v>1920.030458078512</v>
+        <v>1341.156494151699</v>
       </c>
       <c r="W5" t="n">
-        <v>1920.030458078512</v>
+        <v>1341.156494151699</v>
       </c>
       <c r="X5" t="n">
-        <v>1530.577853011569</v>
+        <v>951.7038890847563</v>
       </c>
       <c r="Y5" t="n">
-        <v>1530.577853011569</v>
+        <v>951.7038890847563</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>736.06398896222</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>585.4097585223122</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>455.3207911437926</v>
       </c>
       <c r="E6" t="n">
-        <v>424.66703296953</v>
+        <v>318.8743002546803</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526618</v>
+        <v>194.4424941378121</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245263</v>
+        <v>74.38267620967655</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512721</v>
+        <v>74.38267620967655</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567662</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K6" t="n">
-        <v>475.3448668189926</v>
+        <v>473.352454180576</v>
       </c>
       <c r="L6" t="n">
-        <v>958.9109527173059</v>
+        <v>521.4159459447612</v>
       </c>
       <c r="M6" t="n">
-        <v>1484.733842113161</v>
+        <v>1022.582728940211</v>
       </c>
       <c r="N6" t="n">
-        <v>2010.556731509016</v>
+        <v>1523.749511935662</v>
       </c>
       <c r="O6" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="P6" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R6" t="n">
-        <v>2100.619883750004</v>
+        <v>2000.999251829176</v>
       </c>
       <c r="S6" t="n">
-        <v>2100.619883750004</v>
+        <v>1866.068574729045</v>
       </c>
       <c r="T6" t="n">
-        <v>1923.636071948913</v>
+        <v>1689.084762927954</v>
       </c>
       <c r="U6" t="n">
-        <v>1713.572928627554</v>
+        <v>1479.021619606595</v>
       </c>
       <c r="V6" t="n">
-        <v>1491.032926998621</v>
+        <v>1256.481617977662</v>
       </c>
       <c r="W6" t="n">
-        <v>1260.915681131908</v>
+        <v>1256.481617977662</v>
       </c>
       <c r="X6" t="n">
-        <v>1071.60860348192</v>
+        <v>1067.174540327674</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>887.8603234031814</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>829.9598451376748</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="C7" t="n">
-        <v>829.9598451376748</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="D7" t="n">
-        <v>674.3267320401895</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="E7" t="n">
-        <v>518.767919899392</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="F7" t="n">
-        <v>361.441985112365</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="G7" t="n">
-        <v>361.441985112365</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="H7" t="n">
-        <v>205.963434073859</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I7" t="n">
-        <v>72.86900871093684</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>943.9377610785913</v>
+        <v>725.7660119861162</v>
       </c>
       <c r="U7" t="n">
-        <v>943.9377610785913</v>
+        <v>725.7660119861162</v>
       </c>
       <c r="V7" t="n">
-        <v>943.9377610785913</v>
+        <v>459.7866668069404</v>
       </c>
       <c r="W7" t="n">
-        <v>943.9377610785913</v>
+        <v>459.7866668069404</v>
       </c>
       <c r="X7" t="n">
-        <v>943.9377610785913</v>
+        <v>225.7063445899235</v>
       </c>
       <c r="Y7" t="n">
-        <v>943.9377610785913</v>
+        <v>225.7063445899235</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1179.210445219441</v>
+        <v>1285.397995218369</v>
       </c>
       <c r="C8" t="n">
-        <v>995.6511265770774</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="D8" t="n">
-        <v>610.2099977937452</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="E8" t="n">
-        <v>207.6264729102897</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>879.3684592916816</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>466.2057037796847</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>142.1226533461754</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,49 +4805,49 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>1976.195900010237</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>1579.705190930838</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="9">
@@ -4884,13 +4884,13 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>554.6660347926879</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>1140.16403979929</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N9" t="n">
         <v>1725.662044805892</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.0359480608643</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>515.8308301268535</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>360.1977170293682</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>204.6389048885707</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.2439667521655</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1871.211875180718</v>
+        <v>1320.171044252417</v>
       </c>
       <c r="C11" t="n">
-        <v>1572.977054970837</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>1282.476607474693</v>
+        <v>731.4357765463915</v>
       </c>
       <c r="E11" t="n">
-        <v>974.8337638784258</v>
+        <v>656.6116896536175</v>
       </c>
       <c r="F11" t="n">
-        <v>652.8800066955919</v>
+        <v>334.6579324707835</v>
       </c>
       <c r="G11" t="n">
-        <v>334.6579324707834</v>
+        <v>334.6579324707835</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244623</v>
+        <v>105.5155633244626</v>
       </c>
       <c r="I11" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129427</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404046</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
-        <v>1059.071548358933</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M11" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N11" t="n">
-        <v>2132.883732040976</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O11" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064826</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q11" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205775</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205775</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2945.144336927562</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.978208918269</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2471.277863384681</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2176.765939604927</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y11" t="n">
-        <v>2176.765939604927</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5103,10 +5103,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E12" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F12" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G12" t="n">
         <v>199.803798091603</v>
@@ -5115,28 +5115,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860693</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551002</v>
+        <v>493.0843669550998</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082778</v>
+        <v>417.8199303082774</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979809</v>
+        <v>357.1274984979807</v>
       </c>
       <c r="E13" t="n">
         <v>296.5093676443717</v>
@@ -5188,25 +5188,25 @@
         <v>234.124114144533</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311669</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
       </c>
       <c r="I13" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362512</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757665</v>
+        <v>300.283149675766</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791389</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469768</v>
+        <v>836.8050913469763</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
@@ -5218,13 +5218,13 @@
         <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R13" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
@@ -5236,13 +5236,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.66272518521</v>
+        <v>850.6627251852096</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553814</v>
+        <v>711.5230842553811</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.351704359213</v>
+        <v>583.3517043592128</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1871.211875180718</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C14" t="n">
-        <v>1572.977054970837</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D14" t="n">
-        <v>1282.476607474693</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="E14" t="n">
-        <v>974.8337638784258</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F14" t="n">
-        <v>652.8800066955919</v>
+        <v>423.7376375492708</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707834</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="H14" t="n">
         <v>105.5155633244623</v>
       </c>
       <c r="I14" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
         <v>206.7689006129436</v>
@@ -5291,37 +5291,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064826</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q14" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3034.383511434014</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>2905.823590280619</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2745.011542002405</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2745.011542002405</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2468.953188257881</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2174.441264478126</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>1872.891236685916</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5340,10 +5340,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E15" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F15" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G15" t="n">
         <v>199.803798091603</v>
@@ -5352,22 +5352,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860693</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>494.9732559860693</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1122.74490561275</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
         <v>1740.468202408463</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551002</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D16" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979808</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443717</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445331</v>
+        <v>234.124114144533</v>
       </c>
       <c r="G16" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
         <v>125.3967468362513</v>
@@ -5440,10 +5440,10 @@
         <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469768</v>
+        <v>836.8050913469766</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
@@ -5452,16 +5452,16 @@
         <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
@@ -5473,13 +5473,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553814</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592133</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.671840509931</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803428</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924211</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
         <v>206.7689006129436</v>
@@ -5537,28 +5537,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071059</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188066</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573993</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840154</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5577,10 +5577,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E18" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F18" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G18" t="n">
         <v>199.803798091603</v>
@@ -5589,25 +5589,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860693</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369565</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218798</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588724</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072652</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462906</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229802</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222399</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960397</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343037</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879416</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296496</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5735,19 +5735,19 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924219</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5774,13 +5774,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
         <v>2855.219708188068</v>
@@ -5814,10 +5814,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G21" t="n">
         <v>199.803798091603</v>
@@ -5826,28 +5826,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411551</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411551</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,49 +5884,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072664</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462912</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261211</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330085</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984001</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6026,7 +6026,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6066,19 +6066,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>1606.310991511064</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N24" t="n">
-        <v>1606.310991511064</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229885</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>278.5901810446693</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184691</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567331</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879423</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
         <v>1094.779966106229</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,64 +6200,64 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424151</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.22278621427</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218595</v>
       </c>
       <c r="F26" t="n">
         <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>303.7986541368132</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>662.781010164275</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1249.152663612377</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1888.204925386531</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N26" t="n">
-        <v>2509.067570753567</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O26" t="n">
-        <v>2949.107171645895</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.34602550699</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377512</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
         <v>3060.13197616485</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>607.4220014342354</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
-        <v>1617.556722754498</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6364,37 +6364,37 @@
         <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746015</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225736</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904108</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351193</v>
       </c>
       <c r="O28" t="n">
         <v>1380.047947122475</v>
@@ -6458,40 +6458,40 @@
         <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859516</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>755.8323718938483</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1342.20402534195</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1981.256287116104</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.11893248314</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>3042.158533375468</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3483.397387236564</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377512</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
         <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
         <v>3307.298104174144</v>
@@ -6534,10 +6534,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
         <v>186.4798411672776</v>
@@ -6549,10 +6549,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1095.935962441339</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1751.713933651898</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414159</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232842</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084637</v>
+        <v>1719.814764781096</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634091</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600043</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144918</v>
+        <v>890.2201666674332</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423738</v>
+        <v>590.5275805474757</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282811</v>
+        <v>294.5666773855437</v>
       </c>
       <c r="H32" t="n">
-        <v>96.1864398926765</v>
+        <v>87.6854793020992</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918736</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>680.6652639597212</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1173.98555567825</v>
+        <v>1165.756364896304</v>
       </c>
       <c r="M32" t="n">
-        <v>1746.503271800799</v>
+        <v>1711.757264940884</v>
       </c>
       <c r="N32" t="n">
-        <v>2274.314555438261</v>
+        <v>2239.568548578347</v>
       </c>
       <c r="O32" t="n">
-        <v>2714.35415633059</v>
+        <v>2794.477684958973</v>
       </c>
       <c r="P32" t="n">
-        <v>3171.032156102498</v>
+        <v>3142.665177090495</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.877716243446</v>
+        <v>3327.510737231444</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152272</v>
+        <v>3327.510737231444</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491226</v>
+        <v>3278.199034522559</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448547</v>
+        <v>3171.900284432041</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.44439528105</v>
+        <v>3033.349407216704</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382473</v>
+        <v>2808.444450270287</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748664</v>
+        <v>2554.64726758864</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079625</v>
+        <v>2282.396514871762</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.16845439813</v>
+        <v>2003.107658142428</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230764</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831686</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046489</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321163</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027728</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649993</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="L33" t="n">
-        <v>602.5997698697311</v>
+        <v>663.2312828626696</v>
       </c>
       <c r="M33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590199</v>
+        <v>341.687256555478</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229132</v>
+        <v>288.6839909715321</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233321</v>
+        <v>250.2527302241117</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804387</v>
+        <v>211.8957704333791</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913157</v>
+        <v>171.7716879964169</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886654</v>
+        <v>120.7194864459273</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806345</v>
+        <v>82.44278775748613</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J34" t="n">
-        <v>147.2593924259938</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="K34" t="n">
-        <v>287.5013270395266</v>
+        <v>148.3852558545707</v>
       </c>
       <c r="L34" t="n">
-        <v>560.1194745537122</v>
+        <v>427.3824312166691</v>
       </c>
       <c r="M34" t="n">
-        <v>746.4110528919762</v>
+        <v>728.5435450432317</v>
       </c>
       <c r="N34" t="n">
-        <v>929.6006869231853</v>
+        <v>911.7331790744408</v>
       </c>
       <c r="O34" t="n">
-        <v>1092.305453964893</v>
+        <v>1189.307481604448</v>
       </c>
       <c r="P34" t="n">
-        <v>1320.672127381858</v>
+        <v>1323.033455149255</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392295</v>
+        <v>1326.455651519306</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422776</v>
+        <v>1319.756514501948</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003229</v>
+        <v>1234.142283034562</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569367</v>
+        <v>1115.625083552861</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209172</v>
+        <v>947.3881441448267</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279005</v>
+        <v>798.6106513157158</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569823</v>
+        <v>632.4821015969583</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378695</v>
+        <v>515.6036317300062</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.754219152417</v>
+        <v>409.6934228967144</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
         <v>68.7795079292422</v>
@@ -6962,13 +6962,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
@@ -7020,10 +7020,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7093,28 +7093,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390485</v>
+        <v>149.5338114222406</v>
       </c>
       <c r="L37" t="n">
-        <v>435.0968109750519</v>
+        <v>313.6614512960404</v>
       </c>
       <c r="M37" t="n">
-        <v>621.3883893133159</v>
+        <v>499.9530296343044</v>
       </c>
       <c r="N37" t="n">
-        <v>804.578023344525</v>
+        <v>683.1426636655136</v>
       </c>
       <c r="O37" t="n">
-        <v>967.282790386233</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7205,7 +7205,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
@@ -7214,7 +7214,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7254,19 +7254,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>596.176270190801</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390485</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L40" t="n">
-        <v>407.3644357128483</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M40" t="n">
-        <v>593.6560140511123</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>776.8456480823215</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1765.28441741569</v>
+        <v>1340.175609875975</v>
       </c>
       <c r="C41" t="n">
-        <v>1469.550167908754</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.550291115555</v>
+        <v>1043.331955516592</v>
       </c>
       <c r="E41" t="n">
-        <v>876.4080182222331</v>
+        <v>738.1896826232702</v>
       </c>
       <c r="F41" t="n">
-        <v>645.3782945867573</v>
+        <v>418.7364961433811</v>
       </c>
       <c r="G41" t="n">
-        <v>329.6567910648937</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="H41" t="n">
         <v>103.0149926215175</v>
@@ -7439,22 +7439,22 @@
         <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>3036.88408213696</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2878.572604561692</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V41" t="n">
-        <v>2633.907047255343</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W41" t="n">
-        <v>2360.349264213763</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X41" t="n">
-        <v>2068.337911136954</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y41" t="n">
-        <v>2068.337911136954</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2181.928177194563</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7546,37 +7546,37 @@
         <v>475.5803720344863</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906088</v>
+        <v>402.8165060906087</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832567</v>
+        <v>344.6246449832566</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325924</v>
+        <v>286.5070848325923</v>
       </c>
       <c r="F43" t="n">
         <v>226.6224020356985</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252773</v>
+        <v>155.8096001252772</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690444</v>
+        <v>97.77230107690443</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822076</v>
+        <v>68.23195016743975</v>
       </c>
       <c r="K43" t="n">
-        <v>305.184768367679</v>
+        <v>245.5691623529112</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170083</v>
+        <v>505.1989733022405</v>
       </c>
       <c r="M43" t="n">
-        <v>786.9927227160347</v>
+        <v>786.9927227160341</v>
       </c>
       <c r="N43" t="n">
         <v>1065.684527822773</v>
@@ -7606,7 +7606,7 @@
         <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557616</v>
+        <v>825.6570181557615</v>
       </c>
       <c r="X43" t="n">
         <v>689.0179479288779</v>
@@ -7625,22 +7625,22 @@
         <v>1340.175609875974</v>
       </c>
       <c r="C44" t="n">
-        <v>1340.175609875974</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D44" t="n">
-        <v>1052.175733082775</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
-        <v>964.8314810666462</v>
+        <v>697.2938177058682</v>
       </c>
       <c r="F44" t="n">
-        <v>645.3782945867572</v>
+        <v>377.8406312259791</v>
       </c>
       <c r="G44" t="n">
-        <v>329.6567910648936</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0149926215175</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7682,7 +7682,7 @@
         <v>2752.513254111242</v>
       </c>
       <c r="V44" t="n">
-        <v>2507.847696804893</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W44" t="n">
         <v>2234.289913763314</v>
@@ -7725,19 +7725,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>494.9732559860694</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M45" t="n">
-        <v>1122.744905612751</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7807,13 +7807,13 @@
         <v>127.8475561822076</v>
       </c>
       <c r="K46" t="n">
-        <v>245.5691623529112</v>
+        <v>305.184768367679</v>
       </c>
       <c r="L46" t="n">
-        <v>505.1989733022405</v>
+        <v>564.8145793170083</v>
       </c>
       <c r="M46" t="n">
-        <v>786.9927227160341</v>
+        <v>846.608328730802</v>
       </c>
       <c r="N46" t="n">
         <v>1065.684527822773</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>123.8044614350447</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7985,19 +7985,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>449.590379513113</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>655.347565070562</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,25 +8055,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>501.9204484976839</v>
+        <v>598.6161957820898</v>
       </c>
       <c r="N3" t="n">
-        <v>616.5063445671516</v>
+        <v>107.9567559936361</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>598.9166326216668</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8219,19 +8219,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>680.8592833107123</v>
+        <v>164.2633295905272</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507691</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>494.9403227230384</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8298,16 +8298,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>138.6093284369033</v>
       </c>
       <c r="M6" t="n">
-        <v>623.5213537622968</v>
+        <v>598.6161957820898</v>
       </c>
       <c r="N6" t="n">
-        <v>616.5063445671516</v>
+        <v>591.6011865869446</v>
       </c>
       <c r="O6" t="n">
-        <v>207.8190693362866</v>
+        <v>598.9166326216668</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
@@ -8453,13 +8453,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>311.2540453751045</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>320.115627001847</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8471,7 +8471,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,16 +8532,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>165.3117977752924</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>586.5539326316472</v>
       </c>
       <c r="O9" t="n">
         <v>92.68755888888889</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>263.7907196684342</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
         <v>505.666843611017</v>
@@ -8766,19 +8766,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>340.2745745069883</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8939,7 +8939,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>594.0482827698818</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
         <v>502.0059847475129</v>
@@ -9009,16 +9009,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N15" t="n">
-        <v>187.5973797276331</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9246,19 +9246,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>461.3398360504045</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9477,28 +9477,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>510.5662141339224</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,22 +9714,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>636.8366347720143</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>228.1998931286865</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9954,10 +9954,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>515.2544481366735</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
@@ -9966,7 +9966,7 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>228.1998931286863</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>199.6102425680203</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>228.1998931286863</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10428,13 +10428,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>192.2856137303847</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>663.2434089132776</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -10668,13 +10668,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10902,22 +10902,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>192.2856137303845</v>
+        <v>262.5710112738847</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>287.6151683397065</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,22 +11373,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>488.8476739954107</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>187.5973797276328</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>230.4905691364584</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>48.86442812882716</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>300.8359558898207</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.1130620038565</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -25631,19 +25631,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>284.0215672213459</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>87.53922821596915</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459456</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.0589625183731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25865,13 +25865,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118668</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>243.5346609531187</v>
       </c>
       <c r="E44" t="n">
-        <v>215.620040668421</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.48690626822794</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>637968.1841811809</v>
+        <v>636765.0889536602</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>637968.1841811809</v>
+        <v>636765.0889536602</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>610888.3768233131</v>
+        <v>610888.3768233133</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>613326.9321225398</v>
+        <v>613326.9321225396</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>613326.9321225397</v>
+        <v>613326.9321225396</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>667229.0589454201</v>
+        <v>667229.05894542</v>
       </c>
       <c r="C2" t="n">
-        <v>667229.0589454198</v>
+        <v>667229.05894542</v>
       </c>
       <c r="D2" t="n">
         <v>667229.0589454201</v>
       </c>
       <c r="E2" t="n">
-        <v>627061.6539279823</v>
+        <v>627061.6539279826</v>
       </c>
       <c r="F2" t="n">
-        <v>627061.6539279823</v>
+        <v>627061.6539279826</v>
       </c>
       <c r="G2" t="n">
         <v>667229.05894542</v>
@@ -26332,25 +26332,25 @@
         <v>667229.05894542</v>
       </c>
       <c r="I2" t="n">
+        <v>667229.0589454201</v>
+      </c>
+      <c r="J2" t="n">
+        <v>667229.0589454217</v>
+      </c>
+      <c r="K2" t="n">
+        <v>667229.0589454217</v>
+      </c>
+      <c r="L2" t="n">
         <v>667229.05894542</v>
       </c>
-      <c r="J2" t="n">
-        <v>667229.0589454216</v>
-      </c>
-      <c r="K2" t="n">
-        <v>667229.0589454216</v>
-      </c>
-      <c r="L2" t="n">
-        <v>667229.0589454192</v>
-      </c>
       <c r="M2" t="n">
-        <v>667229.0589454198</v>
+        <v>667229.05894542</v>
       </c>
       <c r="N2" t="n">
         <v>667229.05894542</v>
       </c>
       <c r="O2" t="n">
-        <v>629795.7916877214</v>
+        <v>629795.7916877213</v>
       </c>
       <c r="P2" t="n">
         <v>629795.7916877214</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343507</v>
+        <v>169649.0058765497</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602661</v>
+        <v>26460.41160941832</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301441</v>
+        <v>29094.95587301433</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469665</v>
+        <v>215329.5897923932</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670129</v>
+        <v>46725.80335481254</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436841</v>
+        <v>43782.97194555668</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015681</v>
+        <v>18983.55983015682</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213463.5449614853</v>
+        <v>218972.6240101879</v>
       </c>
       <c r="C4" t="n">
-        <v>213463.5449614853</v>
+        <v>218972.6240101879</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
@@ -26427,13 +26427,13 @@
         <v>148856.2633404648</v>
       </c>
       <c r="F4" t="n">
-        <v>148856.2633404648</v>
+        <v>148856.2633404649</v>
       </c>
       <c r="G4" t="n">
         <v>173460.5839839468</v>
       </c>
       <c r="H4" t="n">
-        <v>173460.5839839467</v>
+        <v>173460.5839839468</v>
       </c>
       <c r="I4" t="n">
         <v>173460.5839839468</v>
@@ -26442,10 +26442,10 @@
         <v>174211.0764483299</v>
       </c>
       <c r="K4" t="n">
-        <v>174211.0764483298</v>
+        <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173888.2217936688</v>
+        <v>173754.827184614</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26467,37 +26467,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814947</v>
+        <v>64406.32768295289</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814947</v>
+        <v>64406.32768295289</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>55112.28950890908</v>
+        <v>55112.2895089091</v>
       </c>
       <c r="F5" t="n">
-        <v>55112.28950890908</v>
+        <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446766</v>
+        <v>60332.67530588337</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>209849.6555614347</v>
+        <v>214201.1013757294</v>
       </c>
       <c r="C6" t="n">
-        <v>387844.9526957851</v>
+        <v>383850.1072522792</v>
       </c>
       <c r="D6" t="n">
-        <v>378789.5452243071</v>
+        <v>371053.2560009154</v>
       </c>
       <c r="E6" t="n">
-        <v>292640.1699408963</v>
+        <v>292531.6093867953</v>
       </c>
       <c r="F6" t="n">
-        <v>423093.1010786084</v>
+        <v>422984.5405245074</v>
       </c>
       <c r="G6" t="n">
-        <v>406503.7497729391</v>
+        <v>406503.7497729392</v>
       </c>
       <c r="H6" t="n">
-        <v>435598.7056459536</v>
+        <v>435598.7056459535</v>
       </c>
       <c r="I6" t="n">
-        <v>435598.7056459535</v>
+        <v>435598.7056459537</v>
       </c>
       <c r="J6" t="n">
-        <v>207513.0622962057</v>
+        <v>214029.347450779</v>
       </c>
       <c r="K6" t="n">
-        <v>429358.9372431723</v>
+        <v>429358.9372431724</v>
       </c>
       <c r="L6" t="n">
-        <v>390464.5903105814</v>
+        <v>386415.75310011</v>
       </c>
       <c r="M6" t="n">
-        <v>392867.4287115849</v>
+        <v>391815.7337003968</v>
       </c>
       <c r="N6" t="n">
         <v>435598.7056459535</v>
       </c>
       <c r="O6" t="n">
-        <v>404960.9448355576</v>
+        <v>404859.7738429691</v>
       </c>
       <c r="P6" t="n">
-        <v>423944.5046657145</v>
+        <v>423843.3336731261</v>
       </c>
     </row>
   </sheetData>
@@ -26695,10 +26695,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,7 +26722,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P2" t="n">
         <v>96.46683947023187</v>
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="C4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014437</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014437</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014437</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.782842288068</v>
+        <v>831.877684307861</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26917,10 +26917,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126801</v>
+        <v>36.36869484126791</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087661</v>
+        <v>58.40725419351567</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165929</v>
+        <v>14.33013548902019</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769601</v>
+        <v>23.72944978769603</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631012</v>
+        <v>85.18305253651715</v>
       </c>
       <c r="E4" t="n">
-        <v>185.0769700321487</v>
+        <v>185.076970032149</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.705872255919</v>
+        <v>646.800714275712</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455249</v>
+        <v>129.688382025732</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126801</v>
+        <v>36.36869484126791</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631012</v>
+        <v>85.18305253651715</v>
       </c>
       <c r="M4" t="n">
-        <v>185.0769700321487</v>
+        <v>185.076970032149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27385,10 +27385,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>299.5916670221321</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>160.9220412857389</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>110.7389651384281</v>
+        <v>43.99219550355051</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>128.1091850427962</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>87.62118754448957</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>117.9385323246325</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>236.9951326713833</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.34787464026375</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>100.3450828649979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>70.517801722881</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>19.34431822393034</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>207.5200210261585</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>43.0921593262744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27916,7 +27916,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28059,25 +28059,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>220.1322412032064</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>144.1400749395018</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733193</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,34 +28719,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668688</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733238</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>130.3599693155844</v>
@@ -28992,16 +28992,16 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="O22" t="n">
-        <v>5.63600263452858</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29217,10 +29217,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668768</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>35.71049010668813</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29296,16 +29296,16 @@
         <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>86.65052755599478</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L26" t="n">
         <v>93.99127447431647</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431647</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="N26" t="n">
         <v>93.99127447431647</v>
@@ -29314,13 +29314,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>93.99127447431647</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
         <v>93.99127447431647</v>
@@ -29536,7 +29536,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>86.65052755599481</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
@@ -29548,16 +29548,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>30.27223765901226</v>
+      </c>
+      <c r="R29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>103.2865954513696</v>
       </c>
       <c r="M32" t="n">
-        <v>26.78466270501883</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="P32" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>109.5863713539251</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5863713539251</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>58.99686212483934</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="P34" t="n">
-        <v>109.5863713539251</v>
+        <v>13.98970481639276</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="35">
@@ -30165,23 +30165,23 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
+        <v>5.636002634528452</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>28.01250026485215</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,11 +30402,11 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
@@ -30417,13 +30417,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>35.71049010668801</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>5.636002634528545</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023186</v>
+        <v>36.24905561693101</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="M43" t="n">
-        <v>36.24905561693163</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="44">
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30879,7 +30879,7 @@
         <v>96.46683947023187</v>
       </c>
       <c r="K46" t="n">
-        <v>36.24905561693102</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="L46" t="n">
         <v>96.46683947023187</v>
@@ -30888,7 +30888,7 @@
         <v>96.46683947023187</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023187</v>
+        <v>36.24905561693103</v>
       </c>
       <c r="O46" t="n">
         <v>96.46683947023187</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>6.124623492698642</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34705,19 +34705,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>299.8653279153858</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>409.533326448372</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="N3" t="n">
-        <v>531.134231712985</v>
+        <v>22.58464313946939</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34939,19 +34939,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>531.134231712985</v>
+        <v>14.53827799279996</v>
       </c>
       <c r="N5" t="n">
-        <v>531.134231712985</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>345.376485298942</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35018,16 +35018,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>48.54898157998504</v>
       </c>
       <c r="M6" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="N6" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="O6" t="n">
-        <v>115.1315104473977</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>168.1956421958672</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>170.3905754041197</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35191,7 +35191,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>75.25145091837418</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>501.1818197774805</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>146.1108817260881</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
         <v>362.6084404317796</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>247.8874524576764</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457854</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
         <v>351.7045375065877</v>
@@ -35729,16 +35729,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N15" t="n">
-        <v>102.2252668734664</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>371.2794891934863</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634527802</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36051,7 +36051,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905433</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36288,16 +36288,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>169.9842521716074</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>544.4495127227025</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634528606</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,7 +36525,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>220.7505244816469</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>232.7614092820838</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101038</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36610,13 +36610,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>425.1941012797553</v>
       </c>
       <c r="M27" t="n">
         <v>634.1127774006881</v>
@@ -36686,7 +36686,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>135.5123342397974</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36832,7 +36832,7 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>449.2589679877744</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36844,16 +36844,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>107.2231205187084</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37069,28 +37069,28 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>472.1948117857047</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>601.5899204195806</v>
       </c>
       <c r="M32" t="n">
-        <v>578.3007233561103</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>560.5142791723505</v>
       </c>
       <c r="P32" t="n">
-        <v>461.2909088605128</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659178</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2252668734665</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.51188388176598</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>141.6585198116493</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>275.3718661759451</v>
+        <v>281.8153286485842</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>304.2031452793561</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>280.3780833636431</v>
       </c>
       <c r="P34" t="n">
-        <v>230.6734074918832</v>
+        <v>135.0767409543509</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.0431353640775</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37388,13 +37388,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133843</v>
       </c>
       <c r="L37" t="n">
-        <v>193.7979950868721</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37476,7 +37476,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2252668734663</v>
+        <v>172.5106644169664</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37713,13 +37713,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>200.0587396437669</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681028</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
         <v>186.7126870110591</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>200.5318035203919</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.3923519980728</v>
+        <v>6.174568144771941</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570418</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922518</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M43" t="n">
-        <v>224.4223670697236</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451906</v>
+        <v>281.5068738451907</v>
       </c>
       <c r="O43" t="n">
         <v>260.8150890073107</v>
@@ -37956,7 +37956,7 @@
         <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038434</v>
+        <v>99.92360348038436</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>398.7873271384925</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>102.2252668734662</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38175,7 +38175,7 @@
         <v>66.3923519980728</v>
       </c>
       <c r="K46" t="n">
-        <v>118.910713303741</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L46" t="n">
         <v>262.2523342922519</v>
@@ -38184,7 +38184,7 @@
         <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451907</v>
+        <v>221.2890899918898</v>
       </c>
       <c r="O46" t="n">
         <v>260.8150890073107</v>
